--- a/Entradas.xlsx
+++ b/Entradas.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R1bfdeb20625a42f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R3e1920c80311419b"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <x:si>
     <x:t xml:space="preserve">Name</x:t>
   </x:si>
@@ -164,6 +164,33 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">%I2.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RPM_VAR1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Word</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%IW70</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RPM_VAR2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%IW72</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RPM_VAR3</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%IW74</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RPM_VAR4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%IW76</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -857,6 +884,134 @@
         <x:v>14</x:v>
       </x:c>
     </x:row>
+    <x:row r="21">
+      <x:c r="A21" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22">
+      <x:c r="A22" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23">
+      <x:c r="A23" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24">
+      <x:c r="A24" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>